--- a/config_10.27/prop_clear_server.xlsx
+++ b/config_10.27/prop_clear_server.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_10.27\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="50">
   <si>
     <t>id|行号</t>
   </si>
@@ -47,153 +47,224 @@
   </si>
   <si>
     <t>prop_carnation</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>prop_shovel</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>五一铲子</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>prop_love</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>爱心</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>prop_fish_drop_act_0</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>爱心</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>prop_mfcjq</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>|备注</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>如果在不停服的维护中，若要两次删除同一道具，需要分开配置</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>prop_xycd_sunshine</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>幸运彩蛋阳光</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>免费话费抽奖券</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>prop_brass_hammer_1</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>prop_silver_hammer_1</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>prop_gold_hammer_1</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>prop_brass_hammer_2</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>prop_silver_hammer_2</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>prop_gold_hammer_2</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>prop_brass_hammer_3</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>prop_silver_hammer_3</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>prop_gold_hammer_3</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>欢乐敲金蛋铜锤（V1-V3）</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>欢乐敲金蛋银锤（V1-V3）</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>欢乐敲金蛋金锤（V1-V3）</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>欢乐敲金蛋铜锤（V4-V7）</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>欢乐敲金蛋银锤（V4-V7）</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>欢乐敲金蛋金锤（V4-V7）</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>欢乐敲金蛋铜锤（v8-v10)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>欢乐敲金蛋银锤（v8-v10)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>欢乐敲金蛋金锤（v8-v10)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>type|类型</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>|状态数据描述</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>prop_cyj_cjq</t>
   </si>
   <si>
     <t>重阳节抽奖</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>p</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>rop_cjlb_1</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_cjlb_2</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_cjlb_3</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_cjlb_4</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>p</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>rop_cjlb_5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <t>prop_cjlb_6</t>
+  </si>
+  <si>
+    <t>万圣节抽奖券</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -239,7 +310,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -267,6 +338,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -310,16 +387,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -328,29 +405,41 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -628,10 +717,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -955,8 +1044,110 @@
         <v>42</v>
       </c>
     </row>
+    <row r="19" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="14">
+        <v>18</v>
+      </c>
+      <c r="B19" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="C19" s="14">
+        <v>1603756800</v>
+      </c>
+      <c r="D19" s="15">
+        <v>1604332799</v>
+      </c>
+      <c r="E19" s="16" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="14">
+        <v>19</v>
+      </c>
+      <c r="B20" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="C20" s="14">
+        <v>1603756800</v>
+      </c>
+      <c r="D20" s="15">
+        <v>1604332799</v>
+      </c>
+      <c r="E20" s="16" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="14">
+        <v>20</v>
+      </c>
+      <c r="B21" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C21" s="14">
+        <v>1603756800</v>
+      </c>
+      <c r="D21" s="15">
+        <v>1604332799</v>
+      </c>
+      <c r="E21" s="16" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="14">
+        <v>21</v>
+      </c>
+      <c r="B22" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="C22" s="14">
+        <v>1603756800</v>
+      </c>
+      <c r="D22" s="15">
+        <v>1604332799</v>
+      </c>
+      <c r="E22" s="16" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="14">
+        <v>22</v>
+      </c>
+      <c r="B23" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="C23" s="14">
+        <v>1603756800</v>
+      </c>
+      <c r="D23" s="15">
+        <v>1604332799</v>
+      </c>
+      <c r="E23" s="16" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="14">
+        <v>23</v>
+      </c>
+      <c r="B24" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="C24" s="14">
+        <v>1603756800</v>
+      </c>
+      <c r="D24" s="15">
+        <v>1604332799</v>
+      </c>
+      <c r="E24" s="16" t="s">
+        <v>49</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
@@ -996,7 +1187,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>